--- a/SQL/db.xlsx
+++ b/SQL/db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janesh\Downloads\web\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A3C3CF3-F362-4EF9-8CB3-52405CE7C9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582DFA64-29FA-4891-B88B-F3439F7E4DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E58AB507-92DE-4DE9-9176-B713E6CF260E}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11505" xr2:uid="{E58AB507-92DE-4DE9-9176-B713E6CF260E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="96">
   <si>
     <t>Customer</t>
   </si>
@@ -308,9 +308,6 @@
   </si>
   <si>
     <t>service provider id</t>
-  </si>
-  <si>
-    <t>U_id</t>
   </si>
   <si>
     <t>Nationality</t>
@@ -383,14 +380,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -709,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C6F647-4F9C-40A1-B728-635AC15A0611}">
   <dimension ref="A2:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,35 +718,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -792,29 +789,29 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -885,25 +882,25 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1005,35 +1002,35 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
         <v>93</v>
       </c>
-      <c r="B36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1105,35 +1102,35 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" t="s">
         <v>95</v>
       </c>
-      <c r="B47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1216,7 +1213,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B60" t="s">
         <v>25</v>
@@ -1270,25 +1267,25 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1348,25 +1345,25 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="1" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1394,13 +1391,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A2:E3"/>
     <mergeCell ref="A37:C38"/>
     <mergeCell ref="A49:C50"/>
     <mergeCell ref="A67:C68"/>
     <mergeCell ref="A77:C78"/>
     <mergeCell ref="A11:E12"/>
     <mergeCell ref="A23:C24"/>
-    <mergeCell ref="A2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/SQL/db.xlsx
+++ b/SQL/db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janesh\Downloads\web\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582DFA64-29FA-4891-B88B-F3439F7E4DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE76DF12-2C88-4777-B1C6-4DB42989DDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11505" xr2:uid="{E58AB507-92DE-4DE9-9176-B713E6CF260E}"/>
+    <workbookView xWindow="-15" yWindow="5370" windowWidth="21600" windowHeight="11295" xr2:uid="{E58AB507-92DE-4DE9-9176-B713E6CF260E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="99">
   <si>
     <t>Customer</t>
   </si>
@@ -320,6 +320,15 @@
   </si>
   <si>
     <t>address id.(unique id)</t>
+  </si>
+  <si>
+    <t>link of avatar</t>
+  </si>
+  <si>
+    <t>payment_status</t>
+  </si>
+  <si>
+    <t>payment status for that service</t>
   </si>
 </sst>
 </file>
@@ -384,10 +393,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -707,7 +716,7 @@
   <dimension ref="A2:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,17 +730,17 @@
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -792,17 +801,17 @@
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -885,13 +894,13 @@
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -977,6 +986,9 @@
       <c r="B33" t="s">
         <v>6</v>
       </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -1015,13 +1027,13 @@
       <c r="A37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -1266,17 +1278,28 @@
         <v>86</v>
       </c>
     </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" t="s">
+        <v>98</v>
+      </c>
+    </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
@@ -1348,13 +1371,13 @@
       <c r="A77" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
